--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_34.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1250000/Output_1_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3409944.935487463</v>
+        <v>3408057.35397106</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -674,10 +674,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>241.0006753805432</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,10 +704,10 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
         <v>216.4483203576578</v>
@@ -719,10 +719,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>309.7029429582361</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -738,7 +738,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883154</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
@@ -756,7 +756,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250818</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -832,13 +832,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -862,7 +862,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>163.8608514409109</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>234.4970761400737</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,16 +941,16 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>5.511247540012855</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>32.56842626327222</v>
       </c>
     </row>
     <row r="6">
@@ -1057,22 +1057,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>73.31370764131945</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,13 +1111,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>42.93165166918628</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1136,22 +1136,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>362.4006936231289</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>231.4408706859787</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448612</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,16 +1178,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>54.47840257481165</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1196,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1227,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H9" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553075</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250817</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229329</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1288,19 +1288,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59.72683757586869</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>156.1271626621475</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417115</v>
       </c>
       <c r="G11" t="n">
         <v>411.9645167896915</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>386.237938656055</v>
       </c>
     </row>
     <row r="12">
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,10 +1525,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>33.3514698018588</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,22 +1579,22 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T13" t="n">
-        <v>117.4769724237348</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,10 +1604,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634811</v>
       </c>
       <c r="C14" t="n">
-        <v>365.2728917710079</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
         <v>354.683041620683</v>
@@ -1625,7 +1625,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274074</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T14" t="n">
         <v>208.4827883385019</v>
@@ -1664,7 +1664,7 @@
         <v>251.078595249801</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.752258470135</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014442</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,10 +1762,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>77.86828753831469</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S16" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>146.278729911946</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2373523985773</v>
+        <v>286.2373523985774</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1850,19 +1850,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H17" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,7 +2002,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>139.1537278750033</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>118.2422920270588</v>
       </c>
     </row>
     <row r="20">
@@ -2096,10 +2096,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113177</v>
+        <v>305.2872491113183</v>
       </c>
       <c r="I20" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>132.9503648051975</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T20" t="n">
         <v>208.4827883385019</v>
@@ -2178,7 +2178,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I21" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2242,7 +2242,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2251,7 +2251,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,10 +2287,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>197.9208099836032</v>
+        <v>21.96549637701668</v>
       </c>
       <c r="T22" t="n">
-        <v>139.1537278750033</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>286.2373523985773</v>
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S25" t="n">
-        <v>115.5269768002173</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5475610583892</v>
+        <v>97.12772045570563</v>
       </c>
       <c r="U25" t="n">
         <v>286.2373523985773</v>
@@ -2536,13 +2536,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2564,10 +2564,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417122</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
@@ -2710,13 +2710,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>119.3786445880209</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S28" t="n">
-        <v>115.5269768002176</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>221.5475610583892</v>
@@ -2773,13 +2773,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2801,10 +2801,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417121</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896921</v>
       </c>
       <c r="H29" t="n">
         <v>305.2872491113177</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>124.6287235533802</v>
       </c>
       <c r="C31" t="n">
-        <v>112.0435644700706</v>
+        <v>112.0435644700707</v>
       </c>
       <c r="D31" t="n">
-        <v>93.41221638965517</v>
+        <v>21.84773706512413</v>
       </c>
       <c r="E31" t="n">
-        <v>91.23070601801199</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>90.21779139437406</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>111.2903118348204</v>
       </c>
       <c r="H31" t="n">
-        <v>93.71057173897894</v>
+        <v>93.71057173897898</v>
       </c>
       <c r="I31" t="n">
-        <v>55.2159888357148</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>54.7610957752356</v>
+        <v>54.76109577523565</v>
       </c>
       <c r="S31" t="n">
         <v>142.7175533550461</v>
@@ -3004,19 +3004,19 @@
         <v>166.3443044298321</v>
       </c>
       <c r="U31" t="n">
-        <v>231.0340957700201</v>
+        <v>231.0340957700202</v>
       </c>
       <c r="V31" t="n">
-        <v>196.9343866952708</v>
+        <v>196.9343866952709</v>
       </c>
       <c r="W31" t="n">
-        <v>231.3197417080338</v>
+        <v>231.3197417080339</v>
       </c>
       <c r="X31" t="n">
         <v>170.50639876048</v>
       </c>
       <c r="Y31" t="n">
-        <v>91.07146653910719</v>
+        <v>163.3813967235376</v>
       </c>
     </row>
     <row r="32">
@@ -3284,7 +3284,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I35" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C37" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898718</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857172</v>
+        <v>80.4835828885717</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692852</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329059</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H37" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789547</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463134</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3481,16 +3481,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V37" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W37" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X37" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y37" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="38">
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896912</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373695</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463133</v>
+        <v>42.28735533463129</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415209</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898717</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E46" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G46" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4192,16 +4192,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V46" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W46" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X46" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y46" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
   </sheetData>
@@ -4304,37 +4304,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>722.2873163082934</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="C2" t="n">
-        <v>722.2873163082934</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="D2" t="n">
-        <v>722.2873163082934</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>722.2873163082934</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>715.3418155590899</v>
+        <v>952.5674858910851</v>
       </c>
       <c r="G2" t="n">
-        <v>297.3780074572768</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4346,34 +4346,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P2" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q2" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R2" t="n">
         <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>1662.48357412947</v>
       </c>
       <c r="W2" t="n">
-        <v>1485.892406545185</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="X2" t="n">
-        <v>1112.426648284105</v>
+        <v>1349.6523186161</v>
       </c>
       <c r="Y2" t="n">
-        <v>722.2873163082934</v>
+        <v>959.5129866402885</v>
       </c>
     </row>
     <row r="3">
@@ -4383,67 +4383,67 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I3" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P3" t="n">
         <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R3" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S3" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T3" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U3" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4452,7 +4452,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>562.6129726499586</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G4" t="n">
-        <v>393.6767897220517</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H4" t="n">
-        <v>235.9284171545819</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I4" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J4" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K4" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T4" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U4" t="n">
-        <v>562.6129726499586</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="V4" t="n">
-        <v>562.6129726499586</v>
+        <v>290.8087152951864</v>
       </c>
       <c r="W4" t="n">
-        <v>562.6129726499586</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="X4" t="n">
-        <v>562.6129726499586</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="Y4" t="n">
-        <v>562.6129726499586</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2107.607341885688</v>
+        <v>847.8148076117928</v>
       </c>
       <c r="C5" t="n">
-        <v>2107.607341885688</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="D5" t="n">
-        <v>1749.341643278937</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="E5" t="n">
-        <v>1363.553390680693</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F5" t="n">
-        <v>952.5674858910851</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G5" t="n">
-        <v>534.603677789272</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2465.942913862886</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W5" t="n">
-        <v>2113.174258592771</v>
+        <v>1640.777806202926</v>
       </c>
       <c r="X5" t="n">
-        <v>2107.607341885688</v>
+        <v>1267.312047941846</v>
       </c>
       <c r="Y5" t="n">
-        <v>2107.607341885688</v>
+        <v>1234.414647675915</v>
       </c>
     </row>
     <row r="6">
@@ -4635,7 +4635,7 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H6" t="n">
         <v>115.9856282673424</v>
@@ -4644,16 +4644,16 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>266.206002764199</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>670.8219208598708</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1194.968834417902</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
         <v>1748.695370517453</v>
@@ -4668,7 +4668,7 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R6" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S6" t="n">
         <v>2488.762748073963</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
-        <v>654.0747340636873</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E7" t="n">
-        <v>506.1616404812942</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F7" t="n">
-        <v>359.2716929833838</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H7" t="n">
-        <v>190.2718927217162</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
         <v>53.94298182036445</v>
@@ -4729,46 +4729,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q7" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="S7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="T7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="U7" t="n">
-        <v>728.1289842064342</v>
+        <v>579.9823256406185</v>
       </c>
       <c r="V7" t="n">
-        <v>728.1289842064342</v>
+        <v>325.2978374347316</v>
       </c>
       <c r="W7" t="n">
-        <v>728.1289842064342</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.944160717209</v>
+        <v>1216.807289433108</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.981643776797</v>
+        <v>847.8447724926959</v>
       </c>
       <c r="D8" t="n">
-        <v>819.715945170047</v>
+        <v>847.8447724926959</v>
       </c>
       <c r="E8" t="n">
-        <v>433.9276925718028</v>
+        <v>462.0565198944517</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>455.1110191452482</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>441.1876150838391</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J8" t="n">
         <v>169.7108380533141</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4817,37 +4817,37 @@
         <v>1836.345445977175</v>
       </c>
       <c r="O8" t="n">
-        <v>2238.843319642689</v>
+        <v>2238.84331964269</v>
       </c>
       <c r="P8" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2697.149091018222</v>
+        <v>2465.942913862887</v>
       </c>
       <c r="T8" t="n">
-        <v>2697.149091018222</v>
+        <v>2247.308246834949</v>
       </c>
       <c r="U8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="V8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="W8" t="n">
-        <v>2697.149091018222</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="X8" t="n">
-        <v>2323.683332757143</v>
+        <v>1993.546461473041</v>
       </c>
       <c r="Y8" t="n">
-        <v>1933.544000781331</v>
+        <v>1603.407129497229</v>
       </c>
     </row>
     <row r="9">
@@ -4872,34 +4872,34 @@
         <v>359.3385232961344</v>
       </c>
       <c r="G9" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424005</v>
       </c>
       <c r="H9" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J9" t="n">
         <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>384.4474646615928</v>
+        <v>384.4474646615929</v>
       </c>
       <c r="L9" t="n">
-        <v>789.0633827572647</v>
+        <v>789.0633827572649</v>
       </c>
       <c r="M9" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417902</v>
       </c>
       <c r="N9" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O9" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P9" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q9" t="n">
         <v>2697.149091018223</v>
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="K10" t="n">
-        <v>110.2451748866326</v>
+        <v>110.2451748866327</v>
       </c>
       <c r="L10" t="n">
         <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.716901165821</v>
+        <v>382.7169011658211</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502502</v>
+        <v>529.6040388502503</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594903</v>
+        <v>649.2617893594904</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064344</v>
+        <v>728.1289842064347</v>
       </c>
       <c r="S10" t="n">
-        <v>728.1289842064344</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T10" t="n">
-        <v>728.1289842064344</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="V10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="W10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="X10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
       <c r="Y10" t="n">
-        <v>728.1289842064344</v>
+        <v>53.94298182036447</v>
       </c>
     </row>
     <row r="11">
@@ -5018,58 +5018,58 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H11" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J11" t="n">
         <v>365.881333182379</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514093</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R11" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014294</v>
       </c>
       <c r="S11" t="n">
         <v>4726.561275231265</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141869</v>
       </c>
       <c r="U11" t="n">
         <v>4262.357857465302</v>
@@ -5115,31 +5115,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I12" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J12" t="n">
-        <v>138.7081686256435</v>
+        <v>263.5382936126483</v>
       </c>
       <c r="K12" t="n">
-        <v>549.5984374701561</v>
+        <v>412.6079778147082</v>
       </c>
       <c r="L12" t="n">
-        <v>891.4406401619856</v>
+        <v>659.3731057211724</v>
       </c>
       <c r="M12" t="n">
-        <v>1198.760773441947</v>
+        <v>1427.741252113634</v>
       </c>
       <c r="N12" t="n">
-        <v>1528.62340110598</v>
+        <v>1833.271529962217</v>
       </c>
       <c r="O12" t="n">
-        <v>1808.163466324677</v>
+        <v>2112.811595180915</v>
       </c>
       <c r="P12" t="n">
-        <v>2328.464088060424</v>
+        <v>2317.834075963124</v>
       </c>
       <c r="Q12" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R12" t="n">
         <v>2623.573505376138</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>377.6878657662453</v>
+        <v>130.9054447954968</v>
       </c>
       <c r="C13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="D13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="E13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="F13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="G13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="H13" t="n">
-        <v>208.7516828383384</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="I13" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028589</v>
       </c>
       <c r="J13" t="n">
-        <v>109.5997839241957</v>
+        <v>109.5997839241958</v>
       </c>
       <c r="K13" t="n">
         <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799365</v>
       </c>
       <c r="M13" t="n">
         <v>779.0639759471192</v>
@@ -5215,10 +5215,10 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
-        <v>1460.082827585746</v>
+        <v>1460.082827585747</v>
       </c>
       <c r="Q13" t="n">
-        <v>1498.916270557902</v>
+        <v>1498.916270557903</v>
       </c>
       <c r="R13" t="n">
         <v>1387.841167119728</v>
@@ -5227,22 +5227,22 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T13" t="n">
-        <v>1069.257548526457</v>
+        <v>964.1357418247861</v>
       </c>
       <c r="U13" t="n">
-        <v>780.1289097400152</v>
+        <v>675.0071030383443</v>
       </c>
       <c r="V13" t="n">
-        <v>780.1289097400152</v>
+        <v>420.3226148324574</v>
       </c>
       <c r="W13" t="n">
-        <v>780.1289097400152</v>
+        <v>130.9054447954968</v>
       </c>
       <c r="X13" t="n">
-        <v>780.1289097400152</v>
+        <v>130.9054447954968</v>
       </c>
       <c r="Y13" t="n">
-        <v>559.336330596485</v>
+        <v>130.9054447954968</v>
       </c>
     </row>
     <row r="14">
@@ -5261,43 +5261,43 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514086</v>
       </c>
       <c r="L14" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M14" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q14" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R14" t="n">
         <v>4860.854573014293</v>
@@ -5355,28 +5355,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J15" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K15" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277034</v>
       </c>
       <c r="L15" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341676</v>
       </c>
       <c r="M15" t="n">
-        <v>1228.513823643587</v>
+        <v>841.8631140141293</v>
       </c>
       <c r="N15" t="n">
-        <v>1558.376451307619</v>
+        <v>1646.27469227828</v>
       </c>
       <c r="O15" t="n">
-        <v>1837.916516526316</v>
+        <v>2315.73845358094</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q15" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R15" t="n">
         <v>2623.573505376138</v>
@@ -5410,13 +5410,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028587</v>
+        <v>175.8719273575737</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="D16" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028593</v>
       </c>
       <c r="E16" t="n">
         <v>97.21709146028587</v>
@@ -5437,13 +5437,13 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471194</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
@@ -5452,34 +5452,34 @@
         <v>1283.483062980064</v>
       </c>
       <c r="P16" t="n">
-        <v>1460.082827585747</v>
+        <v>1460.082827585746</v>
       </c>
       <c r="Q16" t="n">
-        <v>1498.916270557903</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="R16" t="n">
-        <v>1498.916270557903</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S16" t="n">
-        <v>1298.996260473455</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T16" t="n">
-        <v>1151.239967633105</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U16" t="n">
-        <v>862.1113288466635</v>
+        <v>874.9271131227916</v>
       </c>
       <c r="V16" t="n">
-        <v>607.4268406407766</v>
+        <v>874.9271131227915</v>
       </c>
       <c r="W16" t="n">
-        <v>318.0096706038159</v>
+        <v>585.5099430858309</v>
       </c>
       <c r="X16" t="n">
-        <v>318.0096706038159</v>
+        <v>357.5203921878134</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028587</v>
+        <v>357.5203921878134</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G17" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J17" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823799</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514096</v>
       </c>
       <c r="L17" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795208</v>
       </c>
       <c r="M17" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N17" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q17" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R17" t="n">
-        <v>4860.854573014292</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S17" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T17" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y17" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="18">
@@ -5589,7 +5589,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I18" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J18" t="n">
         <v>263.5382936126482</v>
@@ -5601,19 +5601,19 @@
         <v>659.3731057211721</v>
       </c>
       <c r="M18" t="n">
-        <v>966.6932390011336</v>
+        <v>966.6932390011339</v>
       </c>
       <c r="N18" t="n">
-        <v>1296.555866665166</v>
+        <v>1725.969903867171</v>
       </c>
       <c r="O18" t="n">
-        <v>1966.019627967826</v>
+        <v>2005.509969085868</v>
       </c>
       <c r="P18" t="n">
-        <v>2486.320249703573</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q18" t="n">
-        <v>2623.573505376138</v>
+        <v>2612.943493278838</v>
       </c>
       <c r="R18" t="n">
         <v>2623.573505376138</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
       <c r="C19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="D19" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="E19" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="F19" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="G19" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H19" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I19" t="n">
-        <v>97.2170914602858</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J19" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K19" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L19" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M19" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N19" t="n">
         <v>1049.608084974667</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1298.996260473454</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1158.436939387592</v>
+        <v>964.135741824786</v>
       </c>
       <c r="U19" t="n">
-        <v>869.3083006011507</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="V19" t="n">
-        <v>614.6238123952638</v>
+        <v>675.0071030383442</v>
       </c>
       <c r="W19" t="n">
-        <v>325.2066423583032</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="X19" t="n">
-        <v>97.21709146028584</v>
+        <v>385.5899330013835</v>
       </c>
       <c r="Y19" t="n">
-        <v>97.21709146028584</v>
+        <v>266.1532743881928</v>
       </c>
     </row>
     <row r="20">
@@ -5729,67 +5729,67 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
       </c>
       <c r="E20" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G20" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805476</v>
       </c>
       <c r="H20" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514082</v>
+        <v>889.284191751409</v>
       </c>
       <c r="L20" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M20" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014293</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V20" t="n">
         <v>3931.294970121731</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X20" t="n">
         <v>3205.060556590537</v>
@@ -5817,37 +5817,37 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F21" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G21" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H21" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J21" t="n">
-        <v>263.5382936126481</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K21" t="n">
-        <v>674.4285624571608</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L21" t="n">
-        <v>921.1936903636248</v>
+        <v>796.3635653766202</v>
       </c>
       <c r="M21" t="n">
-        <v>1228.513823643586</v>
+        <v>1564.731711769082</v>
       </c>
       <c r="N21" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O21" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P21" t="n">
-        <v>2328.464088060424</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q21" t="n">
         <v>2623.573505376138</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028586</v>
+        <v>415.5090525528009</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028586</v>
+        <v>415.5090525528009</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028586</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028586</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028586</v>
+        <v>265.3924131404652</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K22" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799362</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.063975947119</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5935,25 +5935,25 @@
         <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1298.996260473454</v>
+        <v>1476.728900480108</v>
       </c>
       <c r="T22" t="n">
-        <v>1158.436939387592</v>
+        <v>1476.728900480108</v>
       </c>
       <c r="U22" t="n">
-        <v>869.3083006011507</v>
+        <v>1187.600261693666</v>
       </c>
       <c r="V22" t="n">
-        <v>614.6238123952638</v>
+        <v>932.9157734877789</v>
       </c>
       <c r="W22" t="n">
-        <v>325.2066423583032</v>
+        <v>643.4986034508182</v>
       </c>
       <c r="X22" t="n">
-        <v>97.21709146028586</v>
+        <v>415.5090525528009</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028586</v>
+        <v>415.5090525528009</v>
       </c>
     </row>
     <row r="23">
@@ -5966,52 +5966,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G23" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
       </c>
       <c r="I23" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823787</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514087</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
         <v>4726.561275231264</v>
@@ -6020,16 +6020,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y23" t="n">
         <v>2814.921224614724</v>
@@ -6063,31 +6063,31 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K24" t="n">
-        <v>674.4285624571609</v>
+        <v>549.5984374701561</v>
       </c>
       <c r="L24" t="n">
-        <v>921.1936903636249</v>
+        <v>1024.771599890051</v>
       </c>
       <c r="M24" t="n">
-        <v>1228.513823643586</v>
+        <v>1332.091733170013</v>
       </c>
       <c r="N24" t="n">
-        <v>1558.376451307619</v>
+        <v>1661.954360834046</v>
       </c>
       <c r="O24" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P24" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q24" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R24" t="n">
         <v>2623.573505376138</v>
@@ -6121,46 +6121,46 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028607</v>
       </c>
       <c r="C25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028601</v>
       </c>
       <c r="D25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028596</v>
       </c>
       <c r="E25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J25" t="n">
         <v>109.5997839241957</v>
       </c>
       <c r="K25" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L25" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799362</v>
       </c>
       <c r="M25" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471187</v>
       </c>
       <c r="N25" t="n">
-        <v>1049.608084974667</v>
+        <v>1049.608084974666</v>
       </c>
       <c r="O25" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P25" t="n">
         <v>1460.082827585746</v>
@@ -6169,28 +6169,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R25" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119727</v>
       </c>
       <c r="S25" t="n">
-        <v>1382.222354598087</v>
+        <v>1187.921157035279</v>
       </c>
       <c r="T25" t="n">
-        <v>1158.436939387592</v>
+        <v>1089.812348494163</v>
       </c>
       <c r="U25" t="n">
-        <v>869.3083006011507</v>
+        <v>800.6837097077207</v>
       </c>
       <c r="V25" t="n">
-        <v>614.6238123952639</v>
+        <v>545.9992215018337</v>
       </c>
       <c r="W25" t="n">
-        <v>325.2066423583032</v>
+        <v>545.9992215018337</v>
       </c>
       <c r="X25" t="n">
-        <v>97.21709146028587</v>
+        <v>318.0096706038163</v>
       </c>
       <c r="Y25" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028616</v>
       </c>
     </row>
     <row r="26">
@@ -6200,37 +6200,37 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
@@ -6245,31 +6245,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.62743720783</v>
+        <v>4801.627437207831</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T26" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y26" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="27">
@@ -6306,22 +6306,22 @@
         <v>138.7081686256435</v>
       </c>
       <c r="K27" t="n">
-        <v>549.5984374701561</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L27" t="n">
-        <v>796.3635653766202</v>
+        <v>901.674922584592</v>
       </c>
       <c r="M27" t="n">
-        <v>1564.731711769082</v>
+        <v>1208.995055864554</v>
       </c>
       <c r="N27" t="n">
-        <v>1894.594339433115</v>
+        <v>1538.857683528586</v>
       </c>
       <c r="O27" t="n">
-        <v>2174.134404651812</v>
+        <v>2123.441607278215</v>
       </c>
       <c r="P27" t="n">
-        <v>2379.156885434021</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,13 +6358,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>97.21709146028587</v>
+        <v>217.8015809431353</v>
       </c>
       <c r="C28" t="n">
-        <v>97.21709146028587</v>
+        <v>217.8015809431353</v>
       </c>
       <c r="D28" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E28" t="n">
         <v>97.21709146028587</v>
@@ -6406,28 +6406,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R28" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S28" t="n">
-        <v>1382.222354598087</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="T28" t="n">
-        <v>1158.436939387592</v>
+        <v>1164.055751909234</v>
       </c>
       <c r="U28" t="n">
-        <v>869.3083006011507</v>
+        <v>874.927113122792</v>
       </c>
       <c r="V28" t="n">
-        <v>614.6238123952638</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="W28" t="n">
-        <v>325.2066423583032</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="X28" t="n">
-        <v>97.21709146028587</v>
+        <v>620.2426249169051</v>
       </c>
       <c r="Y28" t="n">
-        <v>97.21709146028587</v>
+        <v>399.450045773375</v>
       </c>
     </row>
     <row r="29">
@@ -6449,7 +6449,7 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155895</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
@@ -6461,10 +6461,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L29" t="n">
         <v>1590.888347795206</v>
@@ -6473,7 +6473,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6540,28 +6540,28 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J30" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K30" t="n">
-        <v>674.4285624571609</v>
+        <v>339.7502131046251</v>
       </c>
       <c r="L30" t="n">
-        <v>921.1936903636249</v>
+        <v>953.6472828615138</v>
       </c>
       <c r="M30" t="n">
-        <v>1228.513823643587</v>
+        <v>1722.015429253975</v>
       </c>
       <c r="N30" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O30" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P30" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q30" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R30" t="n">
         <v>2623.573505376138</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>638.4603630227159</v>
+        <v>439.5324299542195</v>
       </c>
       <c r="C31" t="n">
-        <v>525.2850453761798</v>
+        <v>326.3571123076835</v>
       </c>
       <c r="D31" t="n">
-        <v>430.929271245215</v>
+        <v>304.2886910297802</v>
       </c>
       <c r="E31" t="n">
-        <v>338.7770429441928</v>
+        <v>304.2886910297802</v>
       </c>
       <c r="F31" t="n">
-        <v>247.6479607276533</v>
+        <v>304.2886910297802</v>
       </c>
       <c r="G31" t="n">
-        <v>247.6479607276533</v>
+        <v>191.8742346309717</v>
       </c>
       <c r="H31" t="n">
-        <v>152.9908175569675</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="I31" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J31" t="n">
-        <v>164.2510079864676</v>
+        <v>164.2510079864674</v>
       </c>
       <c r="K31" t="n">
-        <v>369.0876362933507</v>
+        <v>369.0876362933504</v>
       </c>
       <c r="L31" t="n">
-        <v>671.4509053667516</v>
+        <v>671.4509053667513</v>
       </c>
       <c r="M31" t="n">
-        <v>997.6688721962061</v>
+        <v>997.6688721962054</v>
       </c>
       <c r="N31" t="n">
         <v>1322.864205286025</v>
       </c>
       <c r="O31" t="n">
-        <v>1611.390407353694</v>
+        <v>1611.390407353693</v>
       </c>
       <c r="P31" t="n">
-        <v>1842.641396021648</v>
+        <v>1842.641396021647</v>
       </c>
       <c r="Q31" t="n">
         <v>1936.126063056075</v>
       </c>
       <c r="R31" t="n">
-        <v>1880.811824899272</v>
+        <v>1880.811824899271</v>
       </c>
       <c r="S31" t="n">
-        <v>1736.652680096195</v>
+        <v>1736.652680096194</v>
       </c>
       <c r="T31" t="n">
         <v>1568.628130167071</v>
       </c>
       <c r="U31" t="n">
-        <v>1335.260356662001</v>
+        <v>1335.260356662</v>
       </c>
       <c r="V31" t="n">
-        <v>1136.336733737485</v>
+        <v>1136.336733737484</v>
       </c>
       <c r="W31" t="n">
-        <v>902.6804289818949</v>
+        <v>902.680428981894</v>
       </c>
       <c r="X31" t="n">
-        <v>730.4517433652485</v>
+        <v>730.4517433652476</v>
       </c>
       <c r="Y31" t="n">
-        <v>638.4603630227159</v>
+        <v>565.4200295030884</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6674,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805474</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6710,40 +6710,40 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O32" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T32" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="33">
@@ -6774,25 +6774,25 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J33" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K33" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L33" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M33" t="n">
-        <v>1228.513823643587</v>
+        <v>841.863114014129</v>
       </c>
       <c r="N33" t="n">
-        <v>1558.376451307619</v>
+        <v>1517.99338900868</v>
       </c>
       <c r="O33" t="n">
-        <v>1837.916516526316</v>
+        <v>1797.533454227377</v>
       </c>
       <c r="P33" t="n">
         <v>2317.834075963124</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108326</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229667</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D34" t="n">
-        <v>478.047598850672</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E34" t="n">
-        <v>398.95459630832</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504507</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103124</v>
+        <v>221.5295092103131</v>
       </c>
       <c r="H34" t="n">
         <v>139.9315917982973</v>
@@ -6856,19 +6856,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525394</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254951</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649686</v>
+        <v>709.8489468649693</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N34" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O34" t="n">
         <v>1688.186490350129</v>
@@ -6880,13 +6880,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R34" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S34" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T34" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
         <v>1489.892037025262</v>
@@ -6898,10 +6898,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045202</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010312</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="35">
@@ -6914,7 +6914,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
         <v>1701.09316900344</v>
@@ -6923,13 +6923,13 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028584</v>
@@ -6968,16 +6968,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
         <v>2814.921224614724</v>
@@ -7017,25 +7017,25 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K36" t="n">
-        <v>674.4285624571609</v>
+        <v>412.6079778147081</v>
       </c>
       <c r="L36" t="n">
-        <v>921.1936903636249</v>
+        <v>1026.505047571597</v>
       </c>
       <c r="M36" t="n">
-        <v>1228.513823643587</v>
+        <v>1333.825180851558</v>
       </c>
       <c r="N36" t="n">
-        <v>1558.376451307619</v>
+        <v>2051.878056918008</v>
       </c>
       <c r="O36" t="n">
-        <v>1837.916516526316</v>
+        <v>2331.418122136705</v>
       </c>
       <c r="P36" t="n">
-        <v>2317.834075963124</v>
+        <v>2536.440602918915</v>
       </c>
       <c r="Q36" t="n">
-        <v>2612.943493278838</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="R36" t="n">
         <v>2623.573505376138</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108324</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506725</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G37" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982969</v>
       </c>
       <c r="I37" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
         <v>177.05035515254</v>
       </c>
       <c r="K37" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L37" t="n">
         <v>709.8489468649693</v>
@@ -7108,13 +7108,13 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O37" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P37" t="n">
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
         <v>1996.265827986523</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
-        <v>1083.430560862497</v>
+        <v>1083.430560862496</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045207</v>
+        <v>924.26110100452</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901031</v>
       </c>
     </row>
     <row r="38">
@@ -7151,7 +7151,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
         <v>1701.09316900344</v>
@@ -7160,10 +7160,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155884</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
         <v>179.8222783822462</v>
@@ -7172,13 +7172,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823787</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
         <v>2388.164701515097</v>
@@ -7205,16 +7205,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
         <v>2814.921224614724</v>
@@ -7269,7 +7269,7 @@
         <v>1837.916516526316</v>
       </c>
       <c r="P39" t="n">
-        <v>2317.834075963124</v>
+        <v>2358.217138262064</v>
       </c>
       <c r="Q39" t="n">
         <v>2612.943493278838</v>
@@ -7306,34 +7306,34 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083201</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504508</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
         <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L40" t="n">
         <v>709.8489468649691</v>
@@ -7342,25 +7342,25 @@
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116387</v>
+        <v>1386.860941116388</v>
       </c>
       <c r="O40" t="n">
-        <v>1688.186490350128</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P40" t="n">
-        <v>1932.236826184155</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q40" t="n">
         <v>2038.520840384656</v>
       </c>
       <c r="R40" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S40" t="n">
-        <v>1865.165908942115</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T40" t="n">
-        <v>1710.200584771662</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U40" t="n">
         <v>1489.892037025262</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045204</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="41">
@@ -7397,10 +7397,10 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F41" t="n">
-        <v>904.3190116155879</v>
+        <v>904.3190116155884</v>
       </c>
       <c r="G41" t="n">
-        <v>488.1932370805462</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H41" t="n">
         <v>179.8222783822462</v>
@@ -7436,10 +7436,10 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S41" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T41" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U41" t="n">
         <v>4262.3578574653</v>
@@ -7488,22 +7488,22 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J42" t="n">
-        <v>263.5382936126482</v>
+        <v>138.7081686256435</v>
       </c>
       <c r="K42" t="n">
-        <v>674.4285624571609</v>
+        <v>287.7778528277033</v>
       </c>
       <c r="L42" t="n">
-        <v>921.1936903636249</v>
+        <v>534.5429807341674</v>
       </c>
       <c r="M42" t="n">
-        <v>1228.513823643587</v>
+        <v>1302.911127126629</v>
       </c>
       <c r="N42" t="n">
-        <v>1558.376451307619</v>
+        <v>1632.773754790662</v>
       </c>
       <c r="O42" t="n">
-        <v>1837.916516526316</v>
+        <v>1912.313820009359</v>
       </c>
       <c r="P42" t="n">
         <v>2317.834075963124</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7573,7 +7573,7 @@
         <v>394.6863306254957</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7603,16 +7603,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="44">
@@ -7622,37 +7622,37 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E44" t="n">
         <v>1315.304916405196</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H44" t="n">
         <v>179.8222783822462</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J44" t="n">
         <v>365.8813331823787</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514085</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M44" t="n">
         <v>2388.164701515097</v>
@@ -7673,25 +7673,25 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T44" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y44" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="45">
@@ -7722,7 +7722,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
         <v>263.5382936126482</v>
@@ -7734,16 +7734,16 @@
         <v>921.1936903636249</v>
       </c>
       <c r="M45" t="n">
-        <v>1228.513823643587</v>
+        <v>1321.461721072713</v>
       </c>
       <c r="N45" t="n">
-        <v>1558.376451307619</v>
+        <v>1651.324348736746</v>
       </c>
       <c r="O45" t="n">
-        <v>1837.916516526316</v>
+        <v>2320.788110039405</v>
       </c>
       <c r="P45" t="n">
-        <v>2317.834075963124</v>
+        <v>2525.810590821615</v>
       </c>
       <c r="Q45" t="n">
         <v>2612.943493278838</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.460239110833</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506726</v>
       </c>
       <c r="E46" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G46" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H46" t="n">
         <v>139.9315917982973</v>
@@ -7804,13 +7804,13 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L46" t="n">
-        <v>709.8489468649692</v>
+        <v>709.848946864969</v>
       </c>
       <c r="M46" t="n">
         <v>1048.866260860496</v>
@@ -7837,19 +7837,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V46" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W46" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045206</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010316</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8067,13 +8067,13 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N3" t="n">
-        <v>435.9238900028826</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P3" t="n">
-        <v>318.4627686399372</v>
+        <v>199.0269485415595</v>
       </c>
       <c r="Q3" t="n">
         <v>210.0772877358491</v>
@@ -8292,13 +8292,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>221.0467526719079</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>370.8403453034592</v>
+        <v>251.4045252050814</v>
       </c>
       <c r="M6" t="n">
         <v>465.7050637499999</v>
@@ -8538,7 +8538,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>465.7050637499999</v>
+        <v>346.269243651622</v>
       </c>
       <c r="N9" t="n">
         <v>479.3423743435536</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747119</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8766,31 +8766,31 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>96.03744927814688</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>76.43196988338445</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R12" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -9003,10 +9003,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -9015,19 +9015,19 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>288.4091825776752</v>
+        <v>5.100663089359216</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>34.78428385445217</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9252,19 +9252,19 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>433.7515527292969</v>
       </c>
       <c r="O18" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>50.6266194094365</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>34.78428385445218</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9477,7 +9477,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>264.4652370125786</v>
@@ -9486,22 +9486,22 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>158.8724419039327</v>
       </c>
       <c r="O21" t="n">
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>288.4091825776754</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>34.78428385445218</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>65.71641987298386</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9714,13 +9714,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>230.7151863772033</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9729,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>277.6717966208067</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9896,7 +9896,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298293</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9954,25 +9954,25 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>465.7050637499999</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>308.1251096272032</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>158.8724419039329</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>34.78428385445217</v>
@@ -10188,16 +10188,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>264.4652370125786</v>
+        <v>52.49733361305232</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -10206,13 +10206,13 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10437,13 +10437,13 @@
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>349.7653003338568</v>
       </c>
       <c r="O33" t="n">
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
         <v>210.0772877358491</v>
@@ -10592,7 +10592,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>449.5135334928324</v>
       </c>
       <c r="N35" t="n">
         <v>437.3469244119842</v>
@@ -10607,7 +10607,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10665,28 +10665,28 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K36" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>392.1113620226433</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>45.52166981132082</v>
+        <v>34.78428385445217</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720736</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10844,7 +10844,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10917,10 +10917,10 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>277.6717966208064</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>169.2863157167183</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11072,7 +11072,7 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>380.8001812627452</v>
       </c>
       <c r="P41" t="n">
         <v>321.7987081714826</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11136,16 +11136,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11154,7 +11154,7 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>277.6717966208064</v>
+        <v>202.5230052237941</v>
       </c>
       <c r="Q42" t="n">
         <v>210.0772877358491</v>
@@ -11297,7 +11297,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711646</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11318,7 +11318,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11382,19 +11382,19 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>93.88676507992579</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P45" t="n">
-        <v>277.6717966208064</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23413,10 +23413,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>133.895351296769</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
@@ -23434,7 +23434,7 @@
         <v>148.9138283675361</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,22 +23467,22 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>104.0705886346545</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,10 +23650,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>89.37853356031314</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23668,7 +23668,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I16" t="n">
         <v>110.419245464272</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>197.9208099836033</v>
       </c>
       <c r="T16" t="n">
-        <v>75.26883114644326</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,7 +23890,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -23935,28 +23935,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>100.342361325036</v>
       </c>
     </row>
     <row r="20">
@@ -24130,7 +24130,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24139,7 +24139,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -24175,10 +24175,10 @@
         <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>175.9553136065866</v>
       </c>
       <c r="T22" t="n">
-        <v>82.39383318338594</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24379,7 +24379,7 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H25" t="n">
-        <v>148.9138283675361</v>
+        <v>148.9138283675362</v>
       </c>
       <c r="I25" t="n">
         <v>110.419245464272</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>82.39383318338592</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>124.4198406026837</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24424,13 +24424,13 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24598,13 +24598,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>29.23682843019141</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>82.39383318338567</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>124.6287235533801</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>71.56447932453108</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>91.23070601801203</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>90.2177913943741</v>
       </c>
       <c r="G31" t="n">
-        <v>111.2903118348204</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>55.21598883571485</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>72.30993018443043</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933076</v>
       </c>
     </row>
     <row r="7">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>710981.2454933077</v>
+        <v>710981.2454933078</v>
       </c>
     </row>
     <row r="11">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
         <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
+        <v>697885.5043846411</v>
+      </c>
+      <c r="E2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="F2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>664749.4015541044</v>
+      </c>
+      <c r="H2" t="n">
+        <v>664749.401554105</v>
+      </c>
+      <c r="I2" t="n">
+        <v>664749.4015541046</v>
+      </c>
+      <c r="J2" t="n">
+        <v>664749.4015541049</v>
+      </c>
+      <c r="K2" t="n">
+        <v>691597.6334869597</v>
+      </c>
+      <c r="L2" t="n">
+        <v>697885.5043846406</v>
+      </c>
+      <c r="M2" t="n">
         <v>697885.5043846408</v>
-      </c>
-      <c r="E2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="F2" t="n">
-        <v>664749.4015541051</v>
-      </c>
-      <c r="G2" t="n">
-        <v>664749.4015541051</v>
-      </c>
-      <c r="H2" t="n">
-        <v>664749.4015541052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>664749.4015541048</v>
-      </c>
-      <c r="J2" t="n">
-        <v>664749.401554105</v>
-      </c>
-      <c r="K2" t="n">
-        <v>691597.6334869596</v>
-      </c>
-      <c r="L2" t="n">
-        <v>697885.5043846407</v>
-      </c>
-      <c r="M2" t="n">
-        <v>697885.5043846405</v>
       </c>
       <c r="N2" t="n">
         <v>697885.5043846407</v>
       </c>
       <c r="O2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="P2" t="n">
-        <v>697885.5043846406</v>
+        <v>697885.504384641</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26363,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26378,22 +26378,22 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>4.022529435979808e-11</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.209268702950794e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>44162.60530284578</v>
+        <v>44162.60530284571</v>
       </c>
       <c r="L3" t="n">
-        <v>10342.90680086677</v>
+        <v>10342.90680086685</v>
       </c>
       <c r="M3" t="n">
         <v>134801.0152338372</v>
@@ -26405,7 +26405,7 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>44162.60530284579</v>
+        <v>44162.6053028457</v>
       </c>
     </row>
     <row r="4">
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="C4" t="n">
-        <v>147917.0487159209</v>
+        <v>147917.0487159208</v>
       </c>
       <c r="D4" t="n">
         <v>147917.0487159208</v>
       </c>
       <c r="E4" t="n">
-        <v>7916.731656007484</v>
+        <v>7916.731656007419</v>
       </c>
       <c r="F4" t="n">
-        <v>7916.731656007465</v>
+        <v>7916.731656007442</v>
       </c>
       <c r="G4" t="n">
-        <v>7916.731656007492</v>
+        <v>7916.731656007453</v>
       </c>
       <c r="H4" t="n">
-        <v>7916.731656007545</v>
+        <v>7916.731656007455</v>
       </c>
       <c r="I4" t="n">
-        <v>7916.731656007487</v>
+        <v>7916.731656007483</v>
       </c>
       <c r="J4" t="n">
-        <v>7916.731656007448</v>
+        <v>7916.731656007452</v>
       </c>
       <c r="K4" t="n">
-        <v>26081.35417020403</v>
+        <v>26081.35417020401</v>
       </c>
       <c r="L4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="M4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
       <c r="N4" t="n">
-        <v>30335.51889732796</v>
+        <v>30335.51889732799</v>
       </c>
       <c r="O4" t="n">
         <v>30335.51889732796</v>
       </c>
       <c r="P4" t="n">
-        <v>30335.51889732797</v>
+        <v>30335.51889732796</v>
       </c>
     </row>
     <row r="5">
@@ -26467,28 +26467,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340947</v>
       </c>
       <c r="C5" t="n">
         <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>82859.07806340946</v>
+        <v>82859.07806340948</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871667</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871664</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="H5" t="n">
+        <v>91987.32594871664</v>
+      </c>
+      <c r="I5" t="n">
         <v>91987.32594871662</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871661</v>
-      </c>
-      <c r="I5" t="n">
-        <v>91987.32594871664</v>
       </c>
       <c r="J5" t="n">
         <v>91987.32594871664</v>
@@ -26497,7 +26497,7 @@
         <v>96628.20853022282</v>
       </c>
       <c r="L5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="M5" t="n">
         <v>97715.10582002539</v>
@@ -26509,7 +26509,7 @@
         <v>97715.10582002539</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-122858.5016092339</v>
+        <v>-122858.5016092341</v>
       </c>
       <c r="C6" t="n">
         <v>467109.3776053108</v>
       </c>
       <c r="D6" t="n">
-        <v>467109.3776053105</v>
+        <v>467109.3776053108</v>
       </c>
       <c r="E6" t="n">
-        <v>39685.30747248471</v>
+        <v>39587.84834651249</v>
       </c>
       <c r="F6" t="n">
-        <v>564845.343949381</v>
+        <v>564747.8848234087</v>
       </c>
       <c r="G6" t="n">
-        <v>564845.343949381</v>
+        <v>564747.8848234082</v>
       </c>
       <c r="H6" t="n">
-        <v>564845.343949381</v>
+        <v>564747.8848234088</v>
       </c>
       <c r="I6" t="n">
-        <v>564845.3439493806</v>
+        <v>564747.8848234084</v>
       </c>
       <c r="J6" t="n">
-        <v>388422.1247567879</v>
+        <v>388324.6656308156</v>
       </c>
       <c r="K6" t="n">
-        <v>524725.4654836869</v>
+        <v>524706.9717457527</v>
       </c>
       <c r="L6" t="n">
-        <v>559491.9728664205</v>
+        <v>559491.9728664204</v>
       </c>
       <c r="M6" t="n">
-        <v>435033.86443345</v>
+        <v>435033.8644334503</v>
       </c>
       <c r="N6" t="n">
         <v>569834.8796672873</v>
       </c>
       <c r="O6" t="n">
-        <v>569834.8796672872</v>
+        <v>569834.8796672873</v>
       </c>
       <c r="P6" t="n">
-        <v>525672.2743644414</v>
+        <v>525672.2743644419</v>
       </c>
     </row>
   </sheetData>
@@ -26710,22 +26710,22 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O2" t="n">
         <v>68.13189012964065</v>
       </c>
       <c r="P2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="3">
@@ -26735,28 +26735,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170867</v>
+        <v>377.7436642170869</v>
       </c>
       <c r="E3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="F3" t="n">
+        <v>830.3824054541004</v>
+      </c>
+      <c r="G3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="F3" t="n">
+      <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
-      <c r="G3" t="n">
-        <v>830.3824054541002</v>
-      </c>
-      <c r="H3" t="n">
-        <v>830.3824054541002</v>
-      </c>
       <c r="I3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541003</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545558</v>
       </c>
       <c r="E4" t="n">
-        <v>1215.213643253573</v>
+        <v>1215.213643253574</v>
       </c>
       <c r="F4" t="n">
         <v>1215.213643253573</v>
@@ -26920,7 +26920,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>5.02816179497476e-14</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L2" t="n">
-        <v>12.92863350108347</v>
+        <v>12.92863350108357</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855723</v>
+        <v>55.20325662855712</v>
       </c>
     </row>
     <row r="3">
@@ -26957,7 +26957,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545557</v>
+        <v>674.2872727545559</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>540.9263704990175</v>
+        <v>540.9263704990177</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>5.02816179497476e-14</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>55.20325662855722</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="3">
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>82.92209738381393</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>39.53802575917695</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27458,7 +27458,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>3.694822225952521e-13</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27476,7 +27476,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.202682480856311e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27537,7 +27537,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -27552,13 +27552,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27582,7 +27582,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>122.4210228010669</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>52.02592219651729</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,10 +27667,10 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27679,10 +27679,10 @@
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>364.2198531384562</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>353.6695123927814</v>
       </c>
     </row>
     <row r="6">
@@ -27777,25 +27777,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>75.3017653768929</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,7 +27819,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>212.1455389500189</v>
@@ -27831,13 +27831,13 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>243.5913466674047</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27856,22 +27856,22 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>44.47535211858258</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>92.48190207837845</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28008,19 +28008,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>120.1051426060686</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>167.3098022590509</v>
@@ -28032,7 +28032,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853699</v>
+        <v>45.19995918853697</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>29.12274995491427</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>56.01837628787143</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28156,7 +28156,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>-1.065540176637854e-12</v>
       </c>
     </row>
     <row r="12">
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>-2.270997484409356e-13</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28333,19 +28333,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-5.02816179497476e-14</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>-5.02816179497476e-14</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>-5.02816179497476e-14</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>-5.02816179497476e-14</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,7 +28375,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>-5.02816179497476e-14</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-5.02816179497476e-14</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>-5.02816179497476e-14</v>
       </c>
     </row>
     <row r="15">
@@ -28570,13 +28570,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.70530256582424e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>-6.821210263296962e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28849,7 +28849,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.335820343228988e-12</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="C31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="D31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="E31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="F31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="G31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="H31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="I31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="J31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="K31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="L31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="M31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="N31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="O31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="P31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Q31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="R31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="S31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="T31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="U31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="V31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="W31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="X31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
       <c r="Y31" t="n">
-        <v>55.20325662855718</v>
+        <v>55.20325662855713</v>
       </c>
     </row>
     <row r="32">
@@ -30004,7 +30004,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>2.557953848736361e-13</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964065</v>
       </c>
     </row>
     <row r="38">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="41">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
   </sheetData>
@@ -31045,19 +31045,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31072,13 +31072,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31118,16 +31118,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31145,22 +31145,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,16 +31197,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31221,16 +31221,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31282,19 +31282,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N5" t="n">
         <v>270.9617944338304</v>
@@ -31309,13 +31309,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S5" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31382,22 +31382,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q6" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S6" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,16 +31434,16 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I7" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K7" t="n">
         <v>79.14039391302239</v>
@@ -31458,16 +31458,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P7" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S7" t="n">
         <v>11.87105908695336</v>
@@ -31516,10 +31516,10 @@
         <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935141001</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554468</v>
+        <v>58.5445733255447</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31528,34 +31528,34 @@
         <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.641339863067</v>
+        <v>239.6413398630671</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405368</v>
+        <v>266.6471645405369</v>
       </c>
       <c r="N8" t="n">
-        <v>270.9617944338304</v>
+        <v>270.9617944338306</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119867</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954668</v>
       </c>
       <c r="Q8" t="n">
-        <v>163.9882055044137</v>
+        <v>163.9882055044138</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633799</v>
+        <v>95.39071536633803</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727383</v>
+        <v>34.60435677727384</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473554</v>
+        <v>6.647529206473557</v>
       </c>
       <c r="U8" t="n">
-        <v>0.1214853995472036</v>
+        <v>0.1214853995472037</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141111</v>
+        <v>0.8125052400141114</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188916</v>
+        <v>7.847090081188919</v>
       </c>
       <c r="I9" t="n">
-        <v>27.9744128689069</v>
+        <v>27.97441286890691</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396477</v>
+        <v>76.7639270839648</v>
       </c>
       <c r="K9" t="n">
-        <v>131.2017781649102</v>
+        <v>131.2017781649103</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>176.4169820478008</v>
       </c>
       <c r="M9" t="n">
-        <v>205.8702969983122</v>
+        <v>205.8702969983123</v>
       </c>
       <c r="N9" t="n">
-        <v>211.31907117367</v>
+        <v>211.3190711736702</v>
       </c>
       <c r="O9" t="n">
-        <v>193.3156655923047</v>
+        <v>193.3156655923048</v>
       </c>
       <c r="P9" t="n">
         <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>103.7155811639066</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034983</v>
+        <v>50.44659727034985</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372666</v>
+        <v>3.274966296372667</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619154</v>
+        <v>0.05345429210619156</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078612</v>
+        <v>0.6811770994078614</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644443</v>
+        <v>6.056283665644446</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492006</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813578</v>
+        <v>48.1592209281358</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302244</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31692,28 +31692,28 @@
         <v>106.777606591725</v>
       </c>
       <c r="N10" t="n">
-        <v>104.2386737666594</v>
+        <v>104.2386737666595</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175845</v>
+        <v>96.28128674175849</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383805</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678009</v>
+        <v>57.03929329678012</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701164</v>
+        <v>30.62819939701166</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197225</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0371551145131561</v>
+        <v>0.03715511451315612</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,7 +31753,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I11" t="n">
         <v>128.6967545176652</v>
@@ -31762,31 +31762,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L11" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P11" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R11" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31835,31 +31835,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J12" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L12" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M12" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R12" t="n">
         <v>110.8952201095118</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31926,7 +31926,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M13" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N13" t="n">
         <v>229.1447054263751</v>
@@ -31938,19 +31938,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R13" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31990,7 +31990,7 @@
         <v>3.338220725443617</v>
       </c>
       <c r="H14" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444946</v>
       </c>
       <c r="I14" t="n">
         <v>128.6967545176652</v>
@@ -31999,31 +31999,31 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041489</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304441</v>
       </c>
       <c r="M14" t="n">
-        <v>586.1623499565519</v>
+        <v>586.162349956552</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540887</v>
       </c>
       <c r="P14" t="n">
         <v>480.0403130946993</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647497</v>
       </c>
       <c r="R14" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S14" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104651</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
@@ -32072,31 +32072,31 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127066</v>
       </c>
       <c r="J15" t="n">
         <v>168.7478056215734</v>
       </c>
       <c r="K15" t="n">
-        <v>288.4168775622982</v>
+        <v>288.4168775622983</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>387.8120847358986</v>
       </c>
       <c r="M15" t="n">
-        <v>452.5584109724846</v>
+        <v>452.5584109724847</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813462</v>
+        <v>464.5362854813463</v>
       </c>
       <c r="O15" t="n">
-        <v>424.9599466855526</v>
+        <v>424.9599466855527</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.067822345855</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>227.9948068710957</v>
       </c>
       <c r="R15" t="n">
         <v>110.8952201095118</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298631</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32163,7 +32163,7 @@
         <v>222.6241616196124</v>
       </c>
       <c r="M16" t="n">
-        <v>234.7259642171319</v>
+        <v>234.725964217132</v>
       </c>
       <c r="N16" t="n">
         <v>229.1447054263751</v>
@@ -32175,19 +32175,19 @@
         <v>181.1050413469073</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.3877432235691</v>
+        <v>125.3877432235692</v>
       </c>
       <c r="R16" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337671</v>
       </c>
       <c r="S16" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892247</v>
       </c>
       <c r="U16" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351816</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32312,7 +32312,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K18" t="n">
         <v>288.4168775622982</v>
@@ -32321,10 +32321,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M18" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N18" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T18" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,16 +32461,16 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H20" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I20" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J20" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K20" t="n">
         <v>424.6341946041488</v>
@@ -32479,7 +32479,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M20" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N20" t="n">
         <v>595.6470695927186</v>
@@ -32488,7 +32488,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P20" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q20" t="n">
         <v>360.4902833647496</v>
@@ -32497,7 +32497,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S20" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T20" t="n">
         <v>14.61306122562944</v>
@@ -32540,7 +32540,7 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H21" t="n">
         <v>17.25001940386726</v>
@@ -32549,7 +32549,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J21" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K21" t="n">
         <v>288.4168775622982</v>
@@ -32558,10 +32558,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N21" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
         <v>424.9599466855526</v>
@@ -32576,10 +32576,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S21" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T21" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U21" t="n">
         <v>0.1175069441680331</v>
@@ -32640,7 +32640,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N22" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O22" t="n">
         <v>211.6522236065632</v>
@@ -32652,16 +32652,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R22" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S22" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T22" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U22" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,16 +32698,16 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
         <v>424.6341946041488</v>
@@ -32716,7 +32716,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
         <v>595.6470695927186</v>
@@ -32725,7 +32725,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
         <v>360.4902833647496</v>
@@ -32734,7 +32734,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
@@ -32777,7 +32777,7 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
         <v>17.25001940386726</v>
@@ -32786,7 +32786,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>288.4168775622982</v>
@@ -32795,10 +32795,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
-        <v>452.5584109724845</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N24" t="n">
-        <v>464.5362854813461</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
         <v>424.9599466855526</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32877,7 +32877,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
         <v>211.6522236065632</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -34696,19 +34696,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34775,7 +34775,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34787,13 +34787,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>515.9012490932192</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>220.205405775187</v>
       </c>
       <c r="Q3" t="n">
         <v>173.8110948137341</v>
@@ -34933,19 +34933,19 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L5" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O5" t="n">
         <v>406.5635087530452</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K6" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713857</v>
+        <v>289.2671274730079</v>
       </c>
       <c r="M6" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O6" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35176,22 +35176,22 @@
         <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435302</v>
+        <v>421.5361394435303</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060966</v>
+        <v>485.8144648060967</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492237</v>
+        <v>478.8956552492238</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530453</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116799</v>
       </c>
       <c r="Q8" t="n">
-        <v>153.9975062898689</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770692</v>
+        <v>76.01733575770695</v>
       </c>
       <c r="K9" t="n">
-        <v>257.8255762031298</v>
+        <v>257.8255762031299</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>408.7029475713858</v>
       </c>
       <c r="M9" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338903</v>
+        <v>559.3197334338904</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245899</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35331,10 +35331,10 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713958</v>
       </c>
       <c r="L10" t="n">
-        <v>128.8624823850085</v>
+        <v>128.8624823850086</v>
       </c>
       <c r="M10" t="n">
         <v>146.3614835535656</v>
@@ -35343,10 +35343,10 @@
         <v>148.370846145888</v>
       </c>
       <c r="O10" t="n">
-        <v>120.8664146557981</v>
+        <v>120.8664146557982</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873154</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35413,25 +35413,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R11" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>41.91017895490668</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L12" t="n">
-        <v>345.2951542341712</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M12" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N12" t="n">
-        <v>333.1945733980129</v>
+        <v>409.6265432813974</v>
       </c>
       <c r="O12" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>207.0934149315248</v>
       </c>
       <c r="Q12" t="n">
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556555</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
-        <v>250.2141868799285</v>
+        <v>250.2141868799286</v>
       </c>
       <c r="M13" t="n">
         <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
-        <v>273.2768778056036</v>
+        <v>273.2768778056037</v>
       </c>
       <c r="O13" t="n">
         <v>236.2373515206029</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,25 +35650,25 @@
         <v>528.6897561303331</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109073</v>
       </c>
       <c r="M14" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221118</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951473</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109124</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502049</v>
       </c>
       <c r="R14" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349813</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,31 +35723,31 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490671</v>
       </c>
       <c r="K15" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879393</v>
       </c>
       <c r="L15" t="n">
-        <v>249.2577049560243</v>
+        <v>249.2577049560244</v>
       </c>
       <c r="M15" t="n">
-        <v>310.4243770504663</v>
+        <v>310.4243770504664</v>
       </c>
       <c r="N15" t="n">
-        <v>333.1945733980129</v>
+        <v>812.5369477415666</v>
       </c>
       <c r="O15" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178378</v>
       </c>
       <c r="P15" t="n">
-        <v>495.5025975091999</v>
+        <v>212.194078020884</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507416</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>10.73738595686866</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,10 +35802,10 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556553</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L16" t="n">
         <v>250.2141868799285</v>
@@ -35820,10 +35820,10 @@
         <v>236.2373515206029</v>
       </c>
       <c r="P16" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187477</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35884,13 +35884,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K17" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35969,22 +35969,22 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M18" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N18" t="n">
-        <v>333.1945733980128</v>
+        <v>766.9461261273099</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178376</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
       </c>
       <c r="Q18" t="n">
-        <v>138.6396521945106</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36121,13 +36121,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K20" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L20" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M20" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N20" t="n">
         <v>803.5809304081118</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K21" t="n">
         <v>415.0406756005178</v>
@@ -36206,19 +36206,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504662</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N21" t="n">
-        <v>333.1945733980128</v>
+        <v>492.0670153019457</v>
       </c>
       <c r="O21" t="n">
-        <v>282.3637022411081</v>
+        <v>282.3637022411082</v>
       </c>
       <c r="P21" t="n">
-        <v>495.5025975092001</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q21" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K22" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L22" t="n">
         <v>250.2141868799285</v>
@@ -36291,13 +36291,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O22" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P22" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q22" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36358,13 +36358,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
         <v>803.5809304081118</v>
@@ -36379,7 +36379,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.8253897034995</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,31 +36434,31 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K24" t="n">
         <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>249.2577049560243</v>
+        <v>479.9728913332276</v>
       </c>
       <c r="M24" t="n">
-        <v>310.4243770504662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N24" t="n">
-        <v>333.1945733980128</v>
+        <v>333.1945733980129</v>
       </c>
       <c r="O24" t="n">
-        <v>282.3637022411081</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
-        <v>484.7652115523313</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q24" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686864</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556547</v>
       </c>
       <c r="K25" t="n">
         <v>151.7024285299105</v>
@@ -36534,7 +36534,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q25" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36616,7 +36616,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349858</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,25 +36674,25 @@
         <v>41.91017895490668</v>
       </c>
       <c r="K27" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L27" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>776.1294408004662</v>
+        <v>310.4243770504663</v>
       </c>
       <c r="N27" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O27" t="n">
-        <v>282.3637022411082</v>
+        <v>590.4888118683114</v>
       </c>
       <c r="P27" t="n">
         <v>207.0934149315247</v>
       </c>
       <c r="Q27" t="n">
-        <v>246.8854746890071</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36908,16 +36908,16 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K30" t="n">
-        <v>415.0406756005178</v>
+        <v>203.0727722009916</v>
       </c>
       <c r="L30" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N30" t="n">
         <v>333.1945733980129</v>
@@ -36926,13 +36926,13 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P30" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>67.71102679412272</v>
+        <v>67.71102679412266</v>
       </c>
       <c r="K31" t="n">
         <v>206.9056851584677</v>
@@ -37002,13 +37002,13 @@
         <v>328.4801344341608</v>
       </c>
       <c r="O31" t="n">
-        <v>291.4406081491601</v>
+        <v>291.44060814916</v>
       </c>
       <c r="P31" t="n">
-        <v>233.586857240358</v>
+        <v>233.5868572403579</v>
       </c>
       <c r="Q31" t="n">
-        <v>94.42895660043195</v>
+        <v>94.42895660043189</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K32" t="n">
         <v>528.6897561303331</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K33" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L33" t="n">
         <v>249.2577049560243</v>
@@ -37157,13 +37157,13 @@
         <v>310.4243770504663</v>
       </c>
       <c r="N33" t="n">
-        <v>333.1945733980129</v>
+        <v>682.9598737318697</v>
       </c>
       <c r="O33" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P33" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q33" t="n">
         <v>298.0903205209232</v>
@@ -37312,7 +37312,7 @@
         <v>708.6910667109072</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N35" t="n">
         <v>803.5809304081118</v>
@@ -37327,7 +37327,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,28 +37385,28 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K36" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L36" t="n">
-        <v>249.2577049560243</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
         <v>310.4243770504663</v>
       </c>
       <c r="N36" t="n">
-        <v>333.1945733980129</v>
+        <v>725.3059354206563</v>
       </c>
       <c r="O36" t="n">
         <v>282.3637022411082</v>
       </c>
       <c r="P36" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686865</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37476,7 +37476,7 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O37" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P37" t="n">
         <v>246.5154907414414</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303331</v>
@@ -37564,7 +37564,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37637,10 +37637,10 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P39" t="n">
-        <v>484.7652115523311</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>257.2993485017925</v>
       </c>
       <c r="R39" t="n">
         <v>10.73738595686865</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520618</v>
+        <v>80.63966029520623</v>
       </c>
       <c r="K40" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L40" t="n">
         <v>318.3460770095692</v>
@@ -37716,10 +37716,10 @@
         <v>304.3692416502436</v>
       </c>
       <c r="P40" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q40" t="n">
-        <v>107.3575901015154</v>
+        <v>107.3575901015155</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37792,7 +37792,7 @@
         <v>803.5809304081118</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P41" t="n">
         <v>570.6060255109123</v>
@@ -37801,7 +37801,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,16 +37856,16 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>168.0012142953155</v>
+        <v>41.91017895490668</v>
       </c>
       <c r="K42" t="n">
-        <v>415.0406756005178</v>
+        <v>150.5754385879392</v>
       </c>
       <c r="L42" t="n">
         <v>249.2577049560243</v>
       </c>
       <c r="M42" t="n">
-        <v>310.4243770504663</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N42" t="n">
         <v>333.1945733980129</v>
@@ -37874,7 +37874,7 @@
         <v>282.3637022411082</v>
       </c>
       <c r="P42" t="n">
-        <v>484.7652115523311</v>
+        <v>409.6164201553188</v>
       </c>
       <c r="Q42" t="n">
         <v>298.0903205209232</v>
@@ -38017,7 +38017,7 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303331</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L44" t="n">
         <v>708.6910667109072</v>
@@ -38038,7 +38038,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349766</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38102,19 +38102,19 @@
         <v>249.2577049560243</v>
       </c>
       <c r="M45" t="n">
-        <v>310.4243770504663</v>
+        <v>404.3111421303921</v>
       </c>
       <c r="N45" t="n">
         <v>333.1945733980129</v>
       </c>
       <c r="O45" t="n">
-        <v>282.3637022411082</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P45" t="n">
-        <v>484.7652115523311</v>
+        <v>207.0934149315247</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>88.01303278507413</v>
       </c>
       <c r="R45" t="n">
         <v>10.73738595686865</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38187,10 +38187,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O46" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P46" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q46" t="n">
         <v>107.3575901015154</v>
